--- a/biology/Botanique/Geum_reptans/Geum_reptans.xlsx
+++ b/biology/Botanique/Geum_reptans/Geum_reptans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geum reptans, la benoîte rampante ou benoite rampante, est une espèce de plantes à fleurs de la famille des Rosaceae, originaire des Alpes, des Carpates et des Balkans.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sieversia reptans (L.) R.Br., 1824.
 </t>
@@ -542,15 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace rhizomateuse formant de longs stolons.
 Les feuilles de la base, de 6 à 15 cm de long, sont disposées en rosette. Elles sont pennées, découpées en folioles arrondies fortement dentées.
-Floraison
-Les fleurs sont solitaires, de 2 à 4 cm de diamètre, comprenant 5 à 7 pétales de couleur jaune vif et 10 sépales verts.
-La floraison a lieu en Juin.
-Taille
-Jusqu'à 20 à 30 cm de haut[1] pour 20 cm de diamètre.
 </t>
         </is>
       </c>
@@ -576,10 +587,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont solitaires, de 2 à 4 cm de diamètre, comprenant 5 à 7 pétales de couleur jaune vif et 10 sépales verts.
+La floraison a lieu en Juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geum_reptans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geum_reptans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'à 20 à 30 cm de haut pour 20 cm de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geum_reptans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geum_reptans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat, statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce montagnarde et rare apprécie les moraines, les alluvions, les éboulis, les rochers exposés au nord, à une altitude comprise entre 2 000 et 3 000 m. En France, elle n'est pas protégée.
 </t>
